--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H2">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I2">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J2">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>13.55420299359567</v>
+        <v>11.91421453404867</v>
       </c>
       <c r="R2">
-        <v>121.987826942361</v>
+        <v>107.227930806438</v>
       </c>
       <c r="S2">
-        <v>0.01071075075660254</v>
+        <v>0.01008837665725061</v>
       </c>
       <c r="T2">
-        <v>0.01071075075660254</v>
+        <v>0.01008837665725061</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H3">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I3">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J3">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>60.93654211227389</v>
+        <v>43.77028109036554</v>
       </c>
       <c r="R3">
-        <v>548.428879010465</v>
+        <v>393.9325298132899</v>
       </c>
       <c r="S3">
-        <v>0.0481530426276018</v>
+        <v>0.03706254245896037</v>
       </c>
       <c r="T3">
-        <v>0.0481530426276018</v>
+        <v>0.03706254245896037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H4">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I4">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J4">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>67.28334446918778</v>
+        <v>42.01335803786332</v>
       </c>
       <c r="R4">
-        <v>605.55010022269</v>
+        <v>378.1202223407699</v>
       </c>
       <c r="S4">
-        <v>0.05316838865557867</v>
+        <v>0.03557486557847484</v>
       </c>
       <c r="T4">
-        <v>0.05316838865557869</v>
+        <v>0.03557486557847484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H5">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I5">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J5">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>10.73142482730878</v>
+        <v>7.662224779767999</v>
       </c>
       <c r="R5">
-        <v>96.58282344577898</v>
+        <v>68.96002301791199</v>
       </c>
       <c r="S5">
-        <v>0.008480145726224585</v>
+        <v>0.00648799880092061</v>
       </c>
       <c r="T5">
-        <v>0.008480145726224585</v>
+        <v>0.00648799880092061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7373436666666667</v>
+        <v>0.5296286666666666</v>
       </c>
       <c r="H6">
-        <v>2.212031</v>
+        <v>1.588886</v>
       </c>
       <c r="I6">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="J6">
-        <v>0.1678759332276003</v>
+        <v>0.1216589064307739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>59.93752795893078</v>
+        <v>38.31718108535777</v>
       </c>
       <c r="R6">
-        <v>539.437751630377</v>
+        <v>344.85462976822</v>
       </c>
       <c r="S6">
-        <v>0.04736360546159269</v>
+        <v>0.03244512293516746</v>
       </c>
       <c r="T6">
-        <v>0.0473636054615927</v>
+        <v>0.03244512293516746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.569621</v>
       </c>
       <c r="I7">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J7">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>34.12780997707233</v>
+        <v>41.76363783641033</v>
       </c>
       <c r="R7">
-        <v>307.150289793651</v>
+        <v>375.872740527693</v>
       </c>
       <c r="S7">
-        <v>0.02696834824635794</v>
+        <v>0.03536341467300536</v>
       </c>
       <c r="T7">
-        <v>0.02696834824635794</v>
+        <v>0.03536341467300535</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.569621</v>
       </c>
       <c r="I8">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J8">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
         <v>153.4306908971461</v>
@@ -948,10 +948,10 @@
         <v>1380.876218074315</v>
       </c>
       <c r="S8">
-        <v>0.1212434172181973</v>
+        <v>0.129917637132442</v>
       </c>
       <c r="T8">
-        <v>0.1212434172181973</v>
+        <v>0.129917637132442</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.569621</v>
       </c>
       <c r="I9">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J9">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>169.4111557685322</v>
+        <v>147.2720391571216</v>
       </c>
       <c r="R9">
-        <v>1524.70040191679</v>
+        <v>1325.448352414095</v>
       </c>
       <c r="S9">
-        <v>0.1338714394112346</v>
+        <v>0.124702790759092</v>
       </c>
       <c r="T9">
-        <v>0.1338714394112346</v>
+        <v>0.124702790759092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.569621</v>
       </c>
       <c r="I10">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J10">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>27.02040300434322</v>
+        <v>26.85887347494799</v>
       </c>
       <c r="R10">
-        <v>243.1836270390889</v>
+        <v>241.729861274532</v>
       </c>
       <c r="S10">
-        <v>0.02135196013068565</v>
+        <v>0.0227427860586488</v>
       </c>
       <c r="T10">
-        <v>0.02135196013068565</v>
+        <v>0.02274278605864879</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.569621</v>
       </c>
       <c r="I11">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="J11">
-        <v>0.422690876890532</v>
+        <v>0.4264585376760027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>150.9152965795452</v>
+        <v>134.3156000076856</v>
       </c>
       <c r="R11">
-        <v>1358.237669215907</v>
+        <v>1208.84040006917</v>
       </c>
       <c r="S11">
-        <v>0.1192557118840565</v>
+        <v>0.1137319090528146</v>
       </c>
       <c r="T11">
-        <v>0.1192557118840565</v>
+        <v>0.1137319090528146</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H12">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I12">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J12">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>1.233366166822667</v>
+        <v>2.308681535519</v>
       </c>
       <c r="R12">
-        <v>11.100295501404</v>
+        <v>20.778133819671</v>
       </c>
       <c r="S12">
-        <v>0.0009746259230960081</v>
+        <v>0.001954879093824804</v>
       </c>
       <c r="T12">
-        <v>0.0009746259230960081</v>
+        <v>0.001954879093824804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H13">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I13">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J13">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>5.544927237695555</v>
+        <v>8.481603169811667</v>
       </c>
       <c r="R13">
-        <v>49.90434513925999</v>
+        <v>76.334428528305</v>
       </c>
       <c r="S13">
-        <v>0.004381691319992441</v>
+        <v>0.00718180851871181</v>
       </c>
       <c r="T13">
-        <v>0.004381691319992441</v>
+        <v>0.007181808518711809</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H14">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I14">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J14">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>6.122455204351111</v>
+        <v>8.141154724885</v>
       </c>
       <c r="R14">
-        <v>55.10209683916</v>
+        <v>73.270392523965</v>
       </c>
       <c r="S14">
-        <v>0.004838063274045208</v>
+        <v>0.006893533355042392</v>
       </c>
       <c r="T14">
-        <v>0.004838063274045209</v>
+        <v>0.006893533355042391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H15">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I15">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J15">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>0.9765071623951109</v>
+        <v>1.484750574156</v>
       </c>
       <c r="R15">
-        <v>8.788564461555998</v>
+        <v>13.362755167404</v>
       </c>
       <c r="S15">
-        <v>0.000771651777193624</v>
+        <v>0.001257214480346006</v>
       </c>
       <c r="T15">
-        <v>0.000771651777193624</v>
+        <v>0.001257214480346006</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.06709466666666666</v>
+        <v>0.102629</v>
       </c>
       <c r="H16">
-        <v>0.201284</v>
+        <v>0.307887</v>
       </c>
       <c r="I16">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="J16">
-        <v>0.01527588869404827</v>
+        <v>0.02357450171016151</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>5.45402183680311</v>
+        <v>7.424926604443334</v>
       </c>
       <c r="R16">
-        <v>49.086196531228</v>
+        <v>66.82433943999001</v>
       </c>
       <c r="S16">
-        <v>0.004309856399720991</v>
+        <v>0.006287066262236502</v>
       </c>
       <c r="T16">
-        <v>0.004309856399720991</v>
+        <v>0.006287066262236502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H17">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I17">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J17">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>27.59741664034534</v>
+        <v>34.17574074588166</v>
       </c>
       <c r="R17">
-        <v>248.3767497631081</v>
+        <v>307.581666712935</v>
       </c>
       <c r="S17">
-        <v>0.02180792565232494</v>
+        <v>0.02893835293964942</v>
       </c>
       <c r="T17">
-        <v>0.02180792565232494</v>
+        <v>0.02893835293964941</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H18">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I18">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J18">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>124.0715623108911</v>
+        <v>125.5543766350472</v>
       </c>
       <c r="R18">
-        <v>1116.64406079802</v>
+        <v>1129.989389715425</v>
       </c>
       <c r="S18">
-        <v>0.09804335824999366</v>
+        <v>0.1063133317635698</v>
       </c>
       <c r="T18">
-        <v>0.09804335824999366</v>
+        <v>0.1063133317635698</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H19">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I19">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J19">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>136.9941479517022</v>
+        <v>120.5146699400583</v>
       </c>
       <c r="R19">
-        <v>1232.94733156532</v>
+        <v>1084.632029460525</v>
       </c>
       <c r="S19">
-        <v>0.1082549947434841</v>
+        <v>0.1020459535628654</v>
       </c>
       <c r="T19">
-        <v>0.1082549947434841</v>
+        <v>0.1020459535628653</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H20">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I20">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J20">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>21.85001967609022</v>
+        <v>21.97897367566</v>
       </c>
       <c r="R20">
-        <v>196.650177084812</v>
+        <v>197.81076308094</v>
       </c>
       <c r="S20">
-        <v>0.01726623947479926</v>
+        <v>0.01861072455478987</v>
       </c>
       <c r="T20">
-        <v>0.01726623947479926</v>
+        <v>0.01861072455478987</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.501289333333333</v>
+        <v>1.519231666666667</v>
       </c>
       <c r="H21">
-        <v>4.503868000000001</v>
+        <v>4.557695</v>
       </c>
       <c r="I21">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530908</v>
       </c>
       <c r="J21">
-        <v>0.3418085206011696</v>
+        <v>0.3489766978530907</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>122.0374914155062</v>
+        <v>109.9122433244611</v>
       </c>
       <c r="R21">
-        <v>1098.337422739556</v>
+        <v>989.21018992015</v>
       </c>
       <c r="S21">
-        <v>0.09643600248056766</v>
+        <v>0.09306833503221631</v>
       </c>
       <c r="T21">
-        <v>0.09643600248056769</v>
+        <v>0.09306833503221631</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H22">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I22">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J22">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>4.226609406702</v>
+        <v>7.769022641430332</v>
       </c>
       <c r="R22">
-        <v>38.039484660318</v>
+        <v>69.92120377287299</v>
       </c>
       <c r="S22">
-        <v>0.00333993521582102</v>
+        <v>0.00657843002922857</v>
       </c>
       <c r="T22">
-        <v>0.003339935215821021</v>
+        <v>0.006578430029228569</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H23">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I23">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J23">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>19.00185220963</v>
+        <v>28.54173087457943</v>
       </c>
       <c r="R23">
-        <v>171.01666988667</v>
+        <v>256.8755778712149</v>
       </c>
       <c r="S23">
-        <v>0.01501557140816829</v>
+        <v>0.02416774775120564</v>
       </c>
       <c r="T23">
-        <v>0.01501557140816829</v>
+        <v>0.02416774775120563</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H24">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I24">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J24">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>20.98097665958</v>
+        <v>27.39607625042166</v>
       </c>
       <c r="R24">
-        <v>188.82878993622</v>
+        <v>246.5646862537949</v>
       </c>
       <c r="S24">
-        <v>0.01657950760638876</v>
+        <v>0.02319766320768878</v>
       </c>
       <c r="T24">
-        <v>0.01657950760638877</v>
+        <v>0.02319766320768877</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H25">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I25">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J25">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>3.346382014777999</v>
+        <v>4.996384581427999</v>
       </c>
       <c r="R25">
-        <v>30.117438133002</v>
+        <v>44.96746123285199</v>
       </c>
       <c r="S25">
-        <v>0.002644365272793981</v>
+        <v>0.004230695144684154</v>
       </c>
       <c r="T25">
-        <v>0.002644365272793981</v>
+        <v>0.004230695144684153</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.229926</v>
+        <v>0.3453603333333333</v>
       </c>
       <c r="H26">
-        <v>0.689778</v>
+        <v>1.036081</v>
       </c>
       <c r="I26">
-        <v>0.05234878058664986</v>
+        <v>0.07933135632997121</v>
       </c>
       <c r="J26">
-        <v>0.05234878058664987</v>
+        <v>0.07933135632997119</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>18.690329457614</v>
+        <v>24.98587267815222</v>
       </c>
       <c r="R26">
-        <v>168.212965118526</v>
+        <v>224.87285410337</v>
       </c>
       <c r="S26">
-        <v>0.0147694010834778</v>
+        <v>0.02115682019716407</v>
       </c>
       <c r="T26">
-        <v>0.0147694010834778</v>
+        <v>0.02115682019716407</v>
       </c>
     </row>
   </sheetData>
